--- a/biology/Botanique/Viticulture_en_Grande-Bretagne/Viticulture_en_Grande-Bretagne.xlsx
+++ b/biology/Botanique/Viticulture_en_Grande-Bretagne/Viticulture_en_Grande-Bretagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a eu une véritable viticulture en Grande-Bretagne il y a quelques centaines d'années mais il n'en reste que peu de choses actuellement. Néanmoins, les Britanniques sont en général très intéressés, voire passionnés, par tout ce qui concerne le vin, et ce depuis des siècles. On peut citer Hambledon vineyard comme le précurseur de la viticulture moderne britannique dans les années 1950.
-Les zones géographiques et climatiques de la Grande-Bretagne ne sont pas les meilleures pour la culture de la vigne (étés doux et humides). Il est cependant possible, du fait du réchauffement climatique, que la culture de la vigne devienne plus aisée dans le futur[1].
+Les zones géographiques et climatiques de la Grande-Bretagne ne sont pas les meilleures pour la culture de la vigne (étés doux et humides). Il est cependant possible, du fait du réchauffement climatique, que la culture de la vigne devienne plus aisée dans le futur.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Conditions de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il existe néanmoins quelques vignobles en Grande-Bretagne. En 2009, on recense 115 caves productrices de vin et environ 400 exploitations viticoles (voir plus loin, les chiffres communiqués par le syndicat britannique des producteurs).
 Bien que la majeure partie du vignoble se trouve dans le sud de l'Angleterre, on trouve quelques vignobles au Pays de Galles, dans le Yorkshire et jusqu'à Durham (Renishaw Hall Vineyard).
@@ -546,7 +560,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a beaucoup de cépages allemands et français : Pinot Noir, Dunkelfelder, Regent, Faberrebe, Bacchus, Reichensteiner, Madeleine Angevine, Auxerrois, Rondo, Seyval blanc, Chardonnay, riesling, Roter Elbling, Elbling, Optima, Pinot blanc, Ehrenfelser, Ortega, Pinot Meunier, Müller-Thurgau, Huxelrebe, Phoenix, Kernling, Triomphe d'Alsace, Merlot, Scheurebe, Schönburger, Cascade et Léon Millot.
 </t>
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,7 +621,9 @@
           <t>Types de vins</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vins britanniques blanc, rosé et rouge
@@ -638,11 +658,43 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marché intérieur
-Exportation
-</t>
-        </is>
-      </c>
+          <t>Marché intérieur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Grande-Bretagne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Grande-Bretagne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Exportation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
